--- a/surveys/INIS-070920-1966.xlsx
+++ b/surveys/INIS-070920-1966.xlsx
@@ -3517,7 +3517,7 @@
       <c r="O10" s="305" t="n"/>
       <c r="P10" s="334" t="n"/>
       <c r="Q10" s="230" t="n">
-        <v>0.3675</v>
+        <v>0.74</v>
       </c>
       <c r="R10" s="305" t="n"/>
       <c r="S10" s="305" t="n"/>

--- a/surveys/INIS-070920-1966.xlsx
+++ b/surveys/INIS-070920-1966.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12435" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scan and Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Map" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scan and Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="1" name="_2360">#REF!</definedName>
+    <definedName name="_2360" localSheetId="1">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'Scan and Data'!$A$1:$Y$39</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Area">'Map'!$A$1:$Y$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Scan and Data'!$A$1:$Y$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Map'!$A$1:$Y$39</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -22,9 +22,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="m/d/yy;@" numFmtId="164"/>
-    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
-    <numFmt formatCode="0.0" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1535,1181 +1535,1181 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="366">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="29" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="37" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="2" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="58" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="59" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="60" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="61" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="62" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="64" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="65" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="66" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="65" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="67" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="69" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="70" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="71" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="69" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="63" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="72" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="73" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="64" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="65" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="71" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="73" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="76" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="77" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="66" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="74" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="78" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="76" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="82" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="83" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="83" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="84" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="85" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="2" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="83" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="81" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="86" fillId="3" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="82" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="83" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="90" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="89" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="3" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="61" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="57" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="88" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="88" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="36" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="52" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="53" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="56" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="74" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="74" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="81" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="81" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="63" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="63" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="111" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="111" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="111" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="111" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="37" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="106" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="106" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="93" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="101" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="101" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="88" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="89" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="108" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="109" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="110" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="98" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="92" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="109" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="110" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="92" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="92" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="106" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="107" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="106" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="105" fillId="2" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="40" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="105" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="102" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="42" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="41" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="41" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="101" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="102" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="105" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="102" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="103" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="104" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="97" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="53" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="100" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="103" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="104" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="85" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="85" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 4 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3050,17 +3050,17 @@
   </sheetPr>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="25" min="1" style="1" width="7.28515625"/>
-    <col customWidth="1" max="16384" min="26" style="1" width="9.140625"/>
+    <col width="7.28515625" customWidth="1" style="1" min="1" max="25"/>
+    <col width="9.140625" customWidth="1" style="1" min="26" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" thickTop="1">
+    <row r="1" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="297" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -3103,7 +3103,7 @@
       <c r="X1" s="69" t="n"/>
       <c r="Y1" s="70" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" s="304" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -3143,7 +3143,7 @@
       <c r="X2" s="65" t="n"/>
       <c r="Y2" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="3" thickBot="1">
+    <row r="3" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="304" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -3178,7 +3178,7 @@
       <c r="X3" s="67" t="n"/>
       <c r="Y3" s="72" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="4" thickBot="1" thickTop="1">
+    <row r="4" ht="18" customHeight="1" thickBot="1" thickTop="1">
       <c r="A4" s="304" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -3217,7 +3217,7 @@
       <c r="X4" s="313" t="n"/>
       <c r="Y4" s="315" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="5" thickTop="1">
+    <row r="5" ht="18" customHeight="1" thickTop="1">
       <c r="A5" s="304" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -3262,7 +3262,7 @@
       <c r="X5" s="319" t="n"/>
       <c r="Y5" s="321" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="6" thickBot="1">
+    <row r="6" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="304" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -3321,7 +3321,7 @@
       <c r="X6" s="322" t="n"/>
       <c r="Y6" s="325" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
+    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
       <c r="A7" s="326" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -3375,7 +3375,7 @@
       <c r="X7" s="298" t="n"/>
       <c r="Y7" s="299" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
+    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
       <c r="A8" s="331" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -3432,7 +3432,7 @@
       <c r="X8" s="305" t="n"/>
       <c r="Y8" s="306" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="9" thickTop="1">
+    <row r="9" ht="18" customHeight="1" thickTop="1">
       <c r="A9" s="301" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -3481,7 +3481,7 @@
       <c r="X9" s="305" t="n"/>
       <c r="Y9" s="306" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="10">
+    <row r="10" ht="18" customHeight="1">
       <c r="A10" s="339" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -3532,7 +3532,7 @@
       <c r="X10" s="305" t="n"/>
       <c r="Y10" s="306" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="11">
+    <row r="11" ht="18" customHeight="1">
       <c r="A11" s="339" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -3583,7 +3583,7 @@
       <c r="X11" s="305" t="n"/>
       <c r="Y11" s="306" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="12">
+    <row r="12" ht="18" customHeight="1">
       <c r="A12" s="339" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -3630,7 +3630,7 @@
       <c r="X12" s="305" t="n"/>
       <c r="Y12" s="306" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="13">
+    <row r="13" ht="18" customHeight="1">
       <c r="A13" s="339" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -3677,7 +3677,7 @@
       <c r="X13" s="305" t="n"/>
       <c r="Y13" s="306" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="14">
+    <row r="14" ht="18" customHeight="1">
       <c r="A14" s="339" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -3724,7 +3724,7 @@
       <c r="X14" s="305" t="n"/>
       <c r="Y14" s="306" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="15" thickBot="1">
+    <row r="15" ht="18" customHeight="1" thickBot="1">
       <c r="A15" s="339" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -3777,7 +3777,7 @@
       <c r="X15" s="327" t="n"/>
       <c r="Y15" s="328" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="16" thickBot="1" thickTop="1">
+    <row r="16" ht="18" customHeight="1" thickBot="1" thickTop="1">
       <c r="A16" s="352" t="inlineStr">
         <is>
           <t>Glass</t>
@@ -3824,7 +3824,7 @@
       <c r="X16" s="355" t="n"/>
       <c r="Y16" s="318" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="17" thickBot="1" thickTop="1">
+    <row r="17" ht="18" customHeight="1" thickBot="1" thickTop="1">
       <c r="A17" s="73" t="inlineStr">
         <is>
           <t>Note</t>
@@ -3883,7 +3883,7 @@
       <c r="X17" s="322" t="n"/>
       <c r="Y17" s="325" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="18" thickBot="1" thickTop="1">
+    <row r="18" ht="18" customHeight="1" thickBot="1" thickTop="1">
       <c r="A18" s="73" t="n"/>
       <c r="B18" s="295" t="n"/>
       <c r="C18" s="295" t="n"/>
@@ -3910,7 +3910,7 @@
       <c r="X18" s="81" t="n"/>
       <c r="Y18" s="82" t="n"/>
     </row>
-    <row customHeight="1" ht="49.9" r="19" thickBot="1" thickTop="1">
+    <row r="19" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
       <c r="A19" s="16" t="inlineStr">
         <is>
           <t>No</t>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="20" s="38" thickTop="1">
+    <row r="20" ht="19.9" customFormat="1" customHeight="1" s="38" thickTop="1">
       <c r="A20" s="23" t="n">
         <v>1</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="21" s="38">
+    <row r="21" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A21" s="39" t="n">
         <v>2</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="38">
+    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A22" s="50" t="n">
         <v>3</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="38">
+    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A23" s="50" t="n">
         <v>4</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="38">
+    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A24" s="50" t="n">
         <v>5</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="38">
+    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A25" s="50" t="n">
         <v>6</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="38">
+    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A26" s="50" t="n">
         <v>7</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="38">
+    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A27" s="50" t="n">
         <v>8</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="38">
+    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A28" s="50" t="n"/>
       <c r="B28" s="364" t="n"/>
       <c r="C28" s="305" t="n"/>
@@ -4674,7 +4674,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="38">
+    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A29" s="50" t="n"/>
       <c r="B29" s="364" t="n"/>
       <c r="C29" s="305" t="n"/>
@@ -4731,7 +4731,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="38">
+    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A30" s="50" t="n"/>
       <c r="B30" s="364" t="n"/>
       <c r="C30" s="305" t="n"/>
@@ -4788,7 +4788,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="38">
+    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A31" s="39" t="n"/>
       <c r="B31" s="364" t="n"/>
       <c r="C31" s="305" t="n"/>
@@ -4845,7 +4845,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="38">
+    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A32" s="39" t="n"/>
       <c r="B32" s="364" t="n"/>
       <c r="C32" s="305" t="n"/>
@@ -4902,7 +4902,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="38">
+    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A33" s="50" t="n"/>
       <c r="B33" s="364" t="n"/>
       <c r="C33" s="305" t="n"/>
@@ -4959,7 +4959,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="38">
+    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A34" s="50" t="n"/>
       <c r="B34" s="364" t="n"/>
       <c r="C34" s="305" t="n"/>
@@ -5016,7 +5016,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="38">
+    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A35" s="39" t="n"/>
       <c r="B35" s="364" t="n"/>
       <c r="C35" s="305" t="n"/>
@@ -5073,7 +5073,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="38">
+    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A36" s="50" t="n"/>
       <c r="B36" s="364" t="n"/>
       <c r="C36" s="305" t="n"/>
@@ -5130,7 +5130,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="38">
+    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A37" s="50" t="n"/>
       <c r="B37" s="364" t="n"/>
       <c r="C37" s="305" t="n"/>
@@ -5187,7 +5187,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="38">
+    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A38" s="50" t="n"/>
       <c r="B38" s="364" t="n"/>
       <c r="C38" s="305" t="n"/>
@@ -5244,7 +5244,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="38" thickBot="1">
+    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
       <c r="A39" s="52" t="n"/>
       <c r="B39" s="365" t="n"/>
       <c r="C39" s="327" t="n"/>
@@ -5301,7 +5301,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="40" thickTop="1"/>
+    <row r="40" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="111">
     <mergeCell ref="B38:G38"/>
@@ -5417,8 +5417,8 @@
     <mergeCell ref="D5:G5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape" scale="75"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup orientation="landscape" scale="75" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -5438,17 +5438,17 @@
   </sheetPr>
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="25" min="1" style="1" width="7.28515625"/>
-    <col customWidth="1" max="16384" min="26" style="1" width="9.140625"/>
+    <col width="7.28515625" customWidth="1" style="1" min="1" max="25"/>
+    <col width="9.140625" customWidth="1" style="1" min="26" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" thickTop="1">
+    <row r="1" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="108" t="n"/>
       <c r="B1" s="109" t="n"/>
       <c r="C1" s="109" t="n"/>
@@ -5475,7 +5475,7 @@
       <c r="X1" s="69" t="n"/>
       <c r="Y1" s="70" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" s="111" t="n"/>
       <c r="B2" s="112" t="n"/>
       <c r="C2" s="112" t="n"/>
@@ -5502,7 +5502,7 @@
       <c r="X2" s="65" t="n"/>
       <c r="Y2" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="112" t="n"/>
@@ -5529,7 +5529,7 @@
       <c r="X3" s="65" t="n"/>
       <c r="Y3" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="4">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="112" t="n"/>
       <c r="C4" s="112" t="n"/>
@@ -5556,7 +5556,7 @@
       <c r="X4" s="112" t="n"/>
       <c r="Y4" s="116" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="111" t="n"/>
       <c r="B5" s="112" t="n"/>
       <c r="C5" s="112" t="n"/>
@@ -5583,7 +5583,7 @@
       <c r="X5" s="118" t="n"/>
       <c r="Y5" s="119" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="111" t="n"/>
       <c r="B6" s="112" t="n"/>
       <c r="C6" s="112" t="n"/>
@@ -5610,7 +5610,7 @@
       <c r="X6" s="118" t="n"/>
       <c r="Y6" s="119" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="111" t="n"/>
       <c r="B7" s="112" t="n"/>
       <c r="C7" s="112" t="n"/>
@@ -5637,7 +5637,7 @@
       <c r="X7" s="118" t="n"/>
       <c r="Y7" s="119" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="8">
+    <row r="8" ht="18" customHeight="1">
       <c r="A8" s="111" t="n"/>
       <c r="B8" s="112" t="n"/>
       <c r="C8" s="112" t="n"/>
@@ -5664,7 +5664,7 @@
       <c r="X8" s="118" t="n"/>
       <c r="Y8" s="119" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="9">
+    <row r="9" ht="18" customHeight="1">
       <c r="A9" s="111" t="n"/>
       <c r="B9" s="112" t="n"/>
       <c r="C9" s="112" t="n"/>
@@ -5691,7 +5691,7 @@
       <c r="X9" s="124" t="n"/>
       <c r="Y9" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="10">
+    <row r="10" ht="18" customHeight="1">
       <c r="A10" s="111" t="n"/>
       <c r="B10" s="112" t="n"/>
       <c r="C10" s="112" t="n"/>
@@ -5718,7 +5718,7 @@
       <c r="X10" s="128" t="n"/>
       <c r="Y10" s="129" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="11">
+    <row r="11" ht="18" customHeight="1">
       <c r="A11" s="111" t="n"/>
       <c r="B11" s="112" t="n"/>
       <c r="C11" s="112" t="n"/>
@@ -5745,7 +5745,7 @@
       <c r="X11" s="118" t="n"/>
       <c r="Y11" s="119" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="12">
+    <row r="12" ht="18" customHeight="1">
       <c r="A12" s="111" t="n"/>
       <c r="B12" s="112" t="n"/>
       <c r="C12" s="112" t="n"/>
@@ -5772,7 +5772,7 @@
       <c r="X12" s="118" t="n"/>
       <c r="Y12" s="119" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="13">
+    <row r="13" ht="18" customHeight="1">
       <c r="A13" s="111" t="n"/>
       <c r="B13" s="112" t="n"/>
       <c r="C13" s="112" t="n"/>
@@ -5799,7 +5799,7 @@
       <c r="X13" s="118" t="n"/>
       <c r="Y13" s="119" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="14">
+    <row r="14" ht="18" customHeight="1">
       <c r="A14" s="111" t="n"/>
       <c r="B14" s="112" t="n"/>
       <c r="C14" s="112" t="n"/>
@@ -5826,7 +5826,7 @@
       <c r="X14" s="120" t="n"/>
       <c r="Y14" s="132" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="15">
+    <row r="15" ht="18" customHeight="1">
       <c r="A15" s="111" t="n"/>
       <c r="B15" s="112" t="n"/>
       <c r="C15" s="112" t="n"/>
@@ -5853,7 +5853,7 @@
       <c r="X15" s="135" t="n"/>
       <c r="Y15" s="136" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="16">
+    <row r="16" ht="18" customHeight="1">
       <c r="A16" s="111" t="n"/>
       <c r="B16" s="112" t="n"/>
       <c r="C16" s="112" t="n"/>
@@ -5880,7 +5880,7 @@
       <c r="X16" s="112" t="n"/>
       <c r="Y16" s="116" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="17">
+    <row r="17" ht="18" customHeight="1">
       <c r="A17" s="88" t="n"/>
       <c r="B17" s="138" t="n"/>
       <c r="C17" s="138" t="n"/>
@@ -5907,7 +5907,7 @@
       <c r="X17" s="79" t="n"/>
       <c r="Y17" s="139" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="18">
+    <row r="18" ht="18" customHeight="1">
       <c r="A18" s="88" t="n"/>
       <c r="B18" s="89" t="n"/>
       <c r="C18" s="89" t="n"/>
@@ -5934,7 +5934,7 @@
       <c r="X18" s="91" t="n"/>
       <c r="Y18" s="92" t="n"/>
     </row>
-    <row customHeight="1" ht="49.9" r="19">
+    <row r="19" ht="49.9" customHeight="1">
       <c r="A19" s="93" t="n"/>
       <c r="B19" s="140" t="n"/>
       <c r="C19" s="140" t="n"/>
@@ -5961,7 +5961,7 @@
       <c r="X19" s="95" t="n"/>
       <c r="Y19" s="96" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="20" s="38">
+    <row r="20" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A20" s="97" t="n"/>
       <c r="B20" s="98" t="n"/>
       <c r="C20" s="98" t="n"/>
@@ -5988,7 +5988,7 @@
       <c r="X20" s="101" t="n"/>
       <c r="Y20" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="21" s="38">
+    <row r="21" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A21" s="97" t="n"/>
       <c r="B21" s="98" t="n"/>
       <c r="C21" s="98" t="n"/>
@@ -6015,7 +6015,7 @@
       <c r="X21" s="101" t="n"/>
       <c r="Y21" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="22" s="38">
+    <row r="22" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A22" s="97" t="n"/>
       <c r="B22" s="98" t="n"/>
       <c r="C22" s="98" t="n"/>
@@ -6042,7 +6042,7 @@
       <c r="X22" s="101" t="n"/>
       <c r="Y22" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="38">
+    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A23" s="97" t="n"/>
       <c r="B23" s="98" t="n"/>
       <c r="C23" s="98" t="n"/>
@@ -6069,7 +6069,7 @@
       <c r="X23" s="101" t="n"/>
       <c r="Y23" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="38">
+    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A24" s="97" t="n"/>
       <c r="B24" s="98" t="n"/>
       <c r="C24" s="98" t="n"/>
@@ -6096,7 +6096,7 @@
       <c r="X24" s="101" t="n"/>
       <c r="Y24" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="38">
+    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A25" s="97" t="n"/>
       <c r="B25" s="98" t="n"/>
       <c r="C25" s="98" t="n"/>
@@ -6123,7 +6123,7 @@
       <c r="X25" s="101" t="n"/>
       <c r="Y25" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="38">
+    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A26" s="97" t="n"/>
       <c r="B26" s="98" t="n"/>
       <c r="C26" s="98" t="n"/>
@@ -6150,7 +6150,7 @@
       <c r="X26" s="101" t="n"/>
       <c r="Y26" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="38">
+    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A27" s="97" t="n"/>
       <c r="B27" s="98" t="n"/>
       <c r="C27" s="98" t="n"/>
@@ -6177,7 +6177,7 @@
       <c r="X27" s="101" t="n"/>
       <c r="Y27" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="38">
+    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A28" s="97" t="n"/>
       <c r="B28" s="98" t="n"/>
       <c r="C28" s="98" t="n"/>
@@ -6204,7 +6204,7 @@
       <c r="X28" s="101" t="n"/>
       <c r="Y28" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="38">
+    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A29" s="97" t="n"/>
       <c r="B29" s="98" t="n"/>
       <c r="C29" s="98" t="n"/>
@@ -6231,7 +6231,7 @@
       <c r="X29" s="101" t="n"/>
       <c r="Y29" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="38">
+    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A30" s="97" t="n"/>
       <c r="B30" s="98" t="n"/>
       <c r="C30" s="98" t="n"/>
@@ -6258,7 +6258,7 @@
       <c r="X30" s="101" t="n"/>
       <c r="Y30" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="38">
+    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A31" s="97" t="n"/>
       <c r="B31" s="98" t="n"/>
       <c r="C31" s="98" t="n"/>
@@ -6285,7 +6285,7 @@
       <c r="X31" s="101" t="n"/>
       <c r="Y31" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="38" thickBot="1">
+    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
       <c r="A32" s="97" t="n"/>
       <c r="B32" s="98" t="n"/>
       <c r="C32" s="98" t="n"/>
@@ -6312,7 +6312,7 @@
       <c r="X32" s="101" t="n"/>
       <c r="Y32" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="38" thickTop="1">
+    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="38" thickTop="1">
       <c r="A33" s="297" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -6347,7 +6347,7 @@
       <c r="X33" s="145" t="n"/>
       <c r="Y33" s="146" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="38">
+    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A34" s="304" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -6380,7 +6380,7 @@
       <c r="X34" s="101" t="n"/>
       <c r="Y34" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="38">
+    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A35" s="304" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -6415,7 +6415,7 @@
       <c r="X35" s="101" t="n"/>
       <c r="Y35" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="38">
+    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A36" s="304" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -6450,7 +6450,7 @@
       <c r="X36" s="101" t="n"/>
       <c r="Y36" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="38">
+    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A37" s="304" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -6483,7 +6483,7 @@
       <c r="X37" s="101" t="n"/>
       <c r="Y37" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="38">
+    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="38">
       <c r="A38" s="304" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -6518,7 +6518,7 @@
       <c r="X38" s="101" t="n"/>
       <c r="Y38" s="102" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="38" thickBot="1">
+    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="38" thickBot="1">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Level Of Posting</t>
@@ -6553,7 +6553,7 @@
       <c r="X39" s="106" t="n"/>
       <c r="Y39" s="107" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="40" thickTop="1"/>
+    <row r="40" ht="13.5" customHeight="1" thickTop="1"/>
     <row r="41"/>
     <row r="42"/>
     <row r="43"/>
@@ -6581,8 +6581,8 @@
     <mergeCell ref="D35:G35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape" scale="75"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup orientation="landscape" scale="75" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>

--- a/surveys/INIS-070920-1966.xlsx
+++ b/surveys/INIS-070920-1966.xlsx
@@ -2779,6 +2779,221 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>21</col>
+      <colOff>46464</colOff>
+      <row>0</row>
+      <rowOff>55756</rowOff>
+    </from>
+    <to>
+      <col>24</col>
+      <colOff>450696</colOff>
+      <row>2</row>
+      <rowOff>181313</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Picture 2"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10291647" y="55756"/>
+          <a:ext cx="1867829" cy="580898"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>21</col>
+      <colOff>46464</colOff>
+      <row>0</row>
+      <rowOff>55756</rowOff>
+    </from>
+    <to>
+      <col>24</col>
+      <colOff>450696</colOff>
+      <row>2</row>
+      <rowOff>181313</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Picture 1"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10247739" y="55756"/>
+          <a:ext cx="1861557" cy="582757"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>17</col>
+      <colOff>6883</colOff>
+      <row>7</row>
+      <rowOff>58587</rowOff>
+    </from>
+    <to>
+      <col>23</col>
+      <colOff>473206</colOff>
+      <row>24</row>
+      <rowOff>209704</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Picture 6"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8198383" y="1627411"/>
+          <a:ext cx="3357441" cy="4476587"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>1</col>
+      <colOff>11206</colOff>
+      <row>7</row>
+      <rowOff>51706</rowOff>
+    </from>
+    <to>
+      <col>7</col>
+      <colOff>477529</colOff>
+      <row>24</row>
+      <rowOff>202823</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Picture 7"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="493059" y="1620530"/>
+          <a:ext cx="3357441" cy="4476587"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>9</col>
+      <colOff>4324</colOff>
+      <row>7</row>
+      <rowOff>44823</rowOff>
+    </from>
+    <to>
+      <col>15</col>
+      <colOff>475980</colOff>
+      <row>24</row>
+      <rowOff>195940</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Picture 8"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4341000" y="1613647"/>
+          <a:ext cx="3362774" cy="4476587"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3517,7 +3732,7 @@
       <c r="O10" s="305" t="n"/>
       <c r="P10" s="334" t="n"/>
       <c r="Q10" s="230" t="n">
-        <v>0.74</v>
+        <v>0.3675</v>
       </c>
       <c r="R10" s="305" t="n"/>
       <c r="S10" s="305" t="n"/>
@@ -5427,6 +5642,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6591,5 +6807,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/surveys/INIS-070920-1966.xlsx
+++ b/surveys/INIS-070920-1966.xlsx
@@ -5652,7 +5652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X30" sqref="X30"/>
@@ -6770,15 +6770,6 @@
       <c r="Y39" s="107" t="n"/>
     </row>
     <row r="40" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A39:C39"/>
